--- a/biology/Histoire de la zoologie et de la botanique/Société_entomologique_italienne/Société_entomologique_italienne.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Société_entomologique_italienne/Société_entomologique_italienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_entomologique_italienne</t>
+          <t>Société_entomologique_italienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Société entomologique italienne[1],[2] (italien : Società Entomologica Italiana) a été fondée à Florence le 31 octobre 1869 auprès du Musée royal d'histoire naturelle, aujourd’hui connu sous le nom de Musée d'histoire naturelle de l'université.
+La Société entomologique italienne, (italien : Società Entomologica Italiana) a été fondée à Florence le 31 octobre 1869 auprès du Musée royal d'histoire naturelle, aujourd’hui connu sous le nom de Musée d'histoire naturelle de l'université.
 Son premier président est Adolfo Targioni Tozzetti (1823-1902). La Société entomologique italienne a compté parmi ses rangs les plus grands noms de l’entomologie italienne comme Giovanni Battista Grassi (1854-1925), Antonio Berlese (1863-1927), Filippo Silvestri (1873-1949) et Guido Grandi (1886-1970).
 En 1922, le siège de la Société est transféré au Museo civico di storia naturale G. Doria de Gênes. Elle fait paraître, à partir de 1869, un bulletin trois fois par an, Bollettino della Società Entomologica Italiana, et, à partir de 1922, un mémoire annuel, Memorie della Società Entomologica Italiana. La bibliothèque, située à Gênes, est riche de plus de 1 000 monographies et de 7 000 autres publications.
 </t>
